--- a/Day4Automation/Discount2.xlsx
+++ b/Day4Automation/Discount2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learn\quest_python\Day4Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B1520-FB62-4D1E-A226-2125BCBC95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A34282-21BF-4A25-9DE6-E1DAF0D45A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81A8A2A9-A756-44F1-83D4-A7CC6201D622}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Use case</t>
   </si>
@@ -648,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD81F1A2-856B-4789-BC41-7B5C26719E2A}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -872,8 +872,12 @@
       <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -895,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -915,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -935,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -955,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -975,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -995,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1015,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1035,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1058,12 +1062,6 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H27" s="3">
-        <f>3*4*6</f>
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
